--- a/data/trans_dic/P19-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3469003591145274</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3771623336029525</v>
+        <v>0.3771623336029524</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2118762609225999</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1546789906752954</v>
+        <v>0.1536554758492926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2076429134058753</v>
+        <v>0.2046411904322913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2500218966594378</v>
+        <v>0.2505681869651898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2976193663196701</v>
+        <v>0.2959407578436959</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1767120976854427</v>
+        <v>0.1803193005568066</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2172377065306253</v>
+        <v>0.2147830568294095</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2916750835710134</v>
+        <v>0.2899914708395506</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3353910298175621</v>
+        <v>0.330596736069093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1802969554145958</v>
+        <v>0.1784588052554447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2253590388514172</v>
+        <v>0.2278578005204606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2845617756421046</v>
+        <v>0.2879582315065854</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3265108813429231</v>
+        <v>0.3305970175280858</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2502924613509627</v>
+        <v>0.2498215273572253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3088371830923345</v>
+        <v>0.3109649983275039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.362892029379238</v>
+        <v>0.3599588636566076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.404936372924643</v>
+        <v>0.4074656865292307</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2843538686376193</v>
+        <v>0.2851601144016432</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3332796039459117</v>
+        <v>0.326762011398237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4038417014374748</v>
+        <v>0.4017767912127054</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4251746433509705</v>
+        <v>0.4186287877678294</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2523982260231639</v>
+        <v>0.2529693884114537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3010426989327908</v>
+        <v>0.3009342737509573</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.366241432217941</v>
+        <v>0.3663124338083634</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3987534533251036</v>
+        <v>0.4012931794035518</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3234119491870585</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2680080526805931</v>
+        <v>0.268008052680593</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3186875439725873</v>
@@ -833,7 +833,7 @@
         <v>0.3036732918449025</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2527107570131982</v>
+        <v>0.2527107570131981</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2470323781979803</v>
+        <v>0.2456431830109618</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2091962765307719</v>
+        <v>0.2068738933883186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2445660459710137</v>
+        <v>0.2415067809071274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.191225105839156</v>
+        <v>0.194922160469319</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3071567575760354</v>
+        <v>0.3113936366131952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2188426923032714</v>
+        <v>0.2151979423341967</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2810382882944092</v>
+        <v>0.2828997712139896</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2335649655409371</v>
+        <v>0.235008091655106</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2880305036108722</v>
+        <v>0.2863713062506016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2204982060346405</v>
+        <v>0.2257226332456458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.275072439255336</v>
+        <v>0.2714259059703235</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2249364966688911</v>
+        <v>0.2225027776541069</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3317697977316201</v>
+        <v>0.3308191757220895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2872848231414639</v>
+        <v>0.2894294033768348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3281555520530362</v>
+        <v>0.3267504490493717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.289460600907985</v>
+        <v>0.2906284378447533</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3927868791125417</v>
+        <v>0.3944652242097239</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2966723048308426</v>
+        <v>0.2962759868158755</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3682300780411787</v>
+        <v>0.3661223081114784</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3042752052294961</v>
+        <v>0.3054550124554207</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3474910840123618</v>
+        <v>0.3488495485506039</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.27789872101553</v>
+        <v>0.2810862221610854</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3350768180398194</v>
+        <v>0.334036502904958</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2837933448897466</v>
+        <v>0.2813580680557775</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1777234625758618</v>
+        <v>0.1777935523655457</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1867559599888634</v>
+        <v>0.1882451752852595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2515360148070854</v>
+        <v>0.2454153435780257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1666367697823636</v>
+        <v>0.1688773391202226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2350331111064569</v>
+        <v>0.2371939972260399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3093202282179395</v>
+        <v>0.3040991108848524</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2594245010985675</v>
+        <v>0.264686094315452</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2653988444345434</v>
+        <v>0.2606571512096115</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2214162908022695</v>
+        <v>0.2211434935479917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2638248109324597</v>
+        <v>0.2596036994602263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2689602516727373</v>
+        <v>0.2727113305929207</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2268645606556686</v>
+        <v>0.2271799031786164</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2711743472188992</v>
+        <v>0.2755589995156331</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2851485816121959</v>
+        <v>0.2854071593295625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3519817025883813</v>
+        <v>0.3484503068907356</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2583492020152379</v>
+        <v>0.2556117709343427</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3322895580773457</v>
+        <v>0.3342928996757233</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4144088396131406</v>
+        <v>0.4106515681670321</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3673559359079592</v>
+        <v>0.3635635242543875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3529838232483256</v>
+        <v>0.3455321332461168</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2877678005917206</v>
+        <v>0.2912525367362074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3369699978999284</v>
+        <v>0.3358049797141083</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3400114384879656</v>
+        <v>0.3439801641229855</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2910855600746281</v>
+        <v>0.2885076138907045</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3086800465380083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3625484657016651</v>
+        <v>0.3625484657016652</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3296520235934444</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2206860415546886</v>
+        <v>0.2211377042800596</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2229205619444266</v>
+        <v>0.2224073206934046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2639708527605069</v>
+        <v>0.2651187427159408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2972217710262519</v>
+        <v>0.2994277754407784</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2831489875399507</v>
+        <v>0.2850727107190937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2118579174248156</v>
+        <v>0.2162599804065933</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3290017014439403</v>
+        <v>0.3248712887451969</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3833099157216096</v>
+        <v>0.384872517375893</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2641858801936416</v>
+        <v>0.2656325056187597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2323895063386172</v>
+        <v>0.2301851527528137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.311651133626911</v>
+        <v>0.3112655064282038</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3565931464029473</v>
+        <v>0.3587820108042374</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3160396702609725</v>
+        <v>0.3137930222998517</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3157685851450587</v>
+        <v>0.3170045555231437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3615115352322368</v>
+        <v>0.3624647017455389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4323396617696958</v>
+        <v>0.4336192082371939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3773742037116649</v>
+        <v>0.3756708539767081</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3057144474749714</v>
+        <v>0.302791849725382</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4322339456215862</v>
+        <v>0.4307702892843573</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.478433673493379</v>
+        <v>0.477288609232365</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3340427507757887</v>
+        <v>0.3287940781608159</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2983508551722209</v>
+        <v>0.297356049086194</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3824318097575926</v>
+        <v>0.3782118310657994</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.436054636313258</v>
+        <v>0.4422667576611599</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2772968698912266</v>
+        <v>0.2736547585468978</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1427586343763722</v>
+        <v>0.1470743763607049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1155802302174503</v>
+        <v>0.1171727763821933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08114998765710722</v>
+        <v>0.08043200540506652</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.22877253896568</v>
+        <v>0.2292524730410617</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.265869062839356</v>
+        <v>0.266515095827435</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2043579267619647</v>
+        <v>0.20387469300629</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1398904897489867</v>
+        <v>0.1396937873960198</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2683508939827743</v>
+        <v>0.2678766192972407</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2208524885948064</v>
+        <v>0.2193142178758476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1750687854467414</v>
+        <v>0.1782888361695083</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1211897724816054</v>
+        <v>0.1233940728309349</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4042710791593118</v>
+        <v>0.3998209208377229</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2628489138333369</v>
+        <v>0.2588724028524756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2162158136105438</v>
+        <v>0.2163476417819609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1539999125985427</v>
+        <v>0.1610065298042935</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3551760473382644</v>
+        <v>0.3604603116108777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3957496215474401</v>
+        <v>0.3955384330451284</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3218129005757311</v>
+        <v>0.3197457690306221</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2110316766260655</v>
+        <v>0.2109893147126078</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3599951075951064</v>
+        <v>0.358941865149506</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.306634619100224</v>
+        <v>0.3038352730122493</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2515098749269224</v>
+        <v>0.2514812329360736</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1743183794657366</v>
+        <v>0.1749042720518364</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4130026925113439</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2828751317802651</v>
+        <v>0.282875131780265</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2708095392385851</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1540096101702849</v>
+        <v>0.1538547387421512</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2472454182352816</v>
+        <v>0.2473732522816501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3013699310655722</v>
+        <v>0.2966966108089844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1833695628263483</v>
+        <v>0.1840637203641147</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2888572466223695</v>
+        <v>0.2875757637342317</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2476595036952684</v>
+        <v>0.2467947077377216</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.351935421644486</v>
+        <v>0.358609899401068</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2412945605547057</v>
+        <v>0.2369401871548322</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2345416791915256</v>
+        <v>0.234867005086119</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2619939354851814</v>
+        <v>0.2680368119155801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3423330812699882</v>
+        <v>0.3441860743540332</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2220311580639404</v>
+        <v>0.226676189964218</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2445095797025902</v>
+        <v>0.247784945295538</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3615879459171516</v>
+        <v>0.3650703746624271</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.415318681458915</v>
+        <v>0.4172088569447269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2839017422581689</v>
+        <v>0.2815946195470381</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4079393850434869</v>
+        <v>0.4014737013118626</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3599233344865388</v>
+        <v>0.3623963728919791</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4742454014207854</v>
+        <v>0.4746675479833238</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3277658560134207</v>
+        <v>0.3260138376431405</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3166133323534097</v>
+        <v>0.3096839574298075</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3450792732277527</v>
+        <v>0.3498035114777627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4245368580832755</v>
+        <v>0.4288358904649081</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2896650335296104</v>
+        <v>0.2888662363478013</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2509275411507803</v>
+        <v>0.2530395436201557</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2097510509833676</v>
+        <v>0.2129029859263224</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2468955614097579</v>
+        <v>0.2461275610039241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3073226521225928</v>
+        <v>0.3080362600777023</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3452429668748732</v>
+        <v>0.3442470456060013</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2974378458074455</v>
+        <v>0.298464662064188</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3323544290786305</v>
+        <v>0.3357142572341065</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.350467041699788</v>
+        <v>0.3537240121901103</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3092482058475144</v>
+        <v>0.3116714074893968</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2675014269813535</v>
+        <v>0.2636847266758822</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3036904613240382</v>
+        <v>0.3024719749832855</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3392826452328492</v>
+        <v>0.342085899893213</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3273196010924052</v>
+        <v>0.3232820207499344</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2798898442692878</v>
+        <v>0.2800151991910008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3218887522090193</v>
+        <v>0.3215352740170044</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3893938770600348</v>
+        <v>0.3906255455544494</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4205273084118805</v>
+        <v>0.4181122872781612</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3749391341835502</v>
+        <v>0.3717217344711832</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4063127488368871</v>
+        <v>0.4089089240512587</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4155634967592396</v>
+        <v>0.4198759151450194</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3610400937469876</v>
+        <v>0.3633596337100033</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3172653930003489</v>
+        <v>0.3164739336779084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3555592764094363</v>
+        <v>0.3538582026728569</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3935906140891736</v>
+        <v>0.3927147187312083</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1791741865542044</v>
+        <v>0.1801353828577555</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2042786391617535</v>
+        <v>0.2060797616067536</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2649772748729306</v>
+        <v>0.2647753466341118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.16557588336406</v>
+        <v>0.1685447143475946</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2332427232788058</v>
+        <v>0.2330775252155369</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2756042133288345</v>
+        <v>0.2760580284420483</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3049823671017461</v>
+        <v>0.3029065223653445</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2085852788225563</v>
+        <v>0.2090438278803234</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2148649814893877</v>
+        <v>0.2158087588017088</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2500600945191434</v>
+        <v>0.2481846405774635</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2931297272478576</v>
+        <v>0.2958467664587858</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1962236184171729</v>
+        <v>0.1962423490118695</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.240095027056462</v>
+        <v>0.2389221860986126</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2706740603281944</v>
+        <v>0.266883823046079</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3306441468152019</v>
+        <v>0.3323343954190531</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2269996069608464</v>
+        <v>0.2284145173520233</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3008951907928304</v>
+        <v>0.2997493199545998</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3413509196811499</v>
+        <v>0.3411202627884569</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3692089873177281</v>
+        <v>0.3720422146711951</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2632239940954224</v>
+        <v>0.2630590022293755</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2594389692368205</v>
+        <v>0.2583567148001039</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2948576736186659</v>
+        <v>0.2978242962586438</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3404401443279407</v>
+        <v>0.3420731302124552</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2378674387703445</v>
+        <v>0.2387843885177943</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42229</v>
+        <v>41949</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60961</v>
+        <v>60080</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>73447</v>
+        <v>73607</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94894</v>
+        <v>94359</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>46093</v>
+        <v>47034</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>62400</v>
+        <v>61695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84207</v>
+        <v>83721</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>105652</v>
+        <v>104142</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96251</v>
+        <v>95270</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>130896</v>
+        <v>132347</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>165747</v>
+        <v>167725</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>206961</v>
+        <v>209551</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68332</v>
+        <v>68204</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>90671</v>
+        <v>91296</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>106604</v>
+        <v>105742</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>129112</v>
+        <v>129918</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74170</v>
+        <v>74381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>95733</v>
+        <v>93861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>116590</v>
+        <v>115994</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>133935</v>
+        <v>131873</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>134742</v>
+        <v>135047</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>174856</v>
+        <v>174793</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>213322</v>
+        <v>213364</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>252752</v>
+        <v>254362</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121805</v>
+        <v>121121</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>105754</v>
+        <v>104580</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>122913</v>
+        <v>121375</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>101296</v>
+        <v>103254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>154507</v>
+        <v>156638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>114622</v>
+        <v>112713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>147007</v>
+        <v>147980</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>126921</v>
+        <v>127705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>286907</v>
+        <v>285254</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>226957</v>
+        <v>232335</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>282131</v>
+        <v>278390</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>241386</v>
+        <v>238774</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>163587</v>
+        <v>163119</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>145230</v>
+        <v>146314</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>164923</v>
+        <v>164217</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>153333</v>
+        <v>153952</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>197581</v>
+        <v>198425</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>155387</v>
+        <v>155179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>192615</v>
+        <v>191513</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>165346</v>
+        <v>165987</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>346136</v>
+        <v>347489</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>286039</v>
+        <v>289320</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>343675</v>
+        <v>342608</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>304547</v>
+        <v>301934</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56666</v>
+        <v>56689</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60263</v>
+        <v>60744</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80131</v>
+        <v>78181</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52259</v>
+        <v>52962</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>78833</v>
+        <v>79558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>105484</v>
+        <v>103704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>87247</v>
+        <v>89016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>94249</v>
+        <v>92565</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>144863</v>
+        <v>144685</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>175101</v>
+        <v>172300</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>176135</v>
+        <v>178592</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>151712</v>
+        <v>151923</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86463</v>
+        <v>87861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>92013</v>
+        <v>92096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112129</v>
+        <v>111004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81021</v>
+        <v>80163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>111454</v>
+        <v>112126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>141322</v>
+        <v>140040</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>123545</v>
+        <v>122270</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>125353</v>
+        <v>122706</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>188274</v>
+        <v>190554</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>223648</v>
+        <v>222875</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>222665</v>
+        <v>225264</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>194659</v>
+        <v>192935</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>79154</v>
+        <v>79316</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83368</v>
+        <v>83176</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97660</v>
+        <v>98084</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>110733</v>
+        <v>111555</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>105177</v>
+        <v>105892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82402</v>
+        <v>84115</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>127417</v>
+        <v>125817</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>159999</v>
+        <v>160652</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>192889</v>
+        <v>193945</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>177298</v>
+        <v>175616</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>235997</v>
+        <v>235705</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>281699</v>
+        <v>283428</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113354</v>
+        <v>112548</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118092</v>
+        <v>118554</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>133746</v>
+        <v>134099</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161072</v>
+        <v>161549</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>140178</v>
+        <v>139545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>118908</v>
+        <v>117771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>167397</v>
+        <v>166830</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>199705</v>
+        <v>199227</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>243894</v>
+        <v>240061</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>227622</v>
+        <v>226863</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>289595</v>
+        <v>286400</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>344472</v>
+        <v>349379</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56377</v>
+        <v>55636</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30353</v>
+        <v>31271</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24413</v>
+        <v>24749</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16690</v>
+        <v>16542</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47509</v>
+        <v>47608</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>58126</v>
+        <v>58267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44670</v>
+        <v>44564</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>31415</v>
+        <v>31370</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110286</v>
+        <v>110091</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>95242</v>
+        <v>94578</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>75246</v>
+        <v>76630</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>52139</v>
+        <v>53088</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82192</v>
+        <v>81287</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55886</v>
+        <v>55041</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45669</v>
+        <v>45697</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31672</v>
+        <v>33113</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>73759</v>
+        <v>74856</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>86522</v>
+        <v>86475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>70344</v>
+        <v>69892</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47390</v>
+        <v>47381</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>147949</v>
+        <v>147516</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>132235</v>
+        <v>131027</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>108101</v>
+        <v>108089</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>74997</v>
+        <v>75249</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>41707</v>
+        <v>41666</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>67741</v>
+        <v>67776</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>79297</v>
+        <v>78068</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>49639</v>
+        <v>49827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>80344</v>
+        <v>79987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>69352</v>
+        <v>69110</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>96119</v>
+        <v>97942</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>63641</v>
+        <v>62493</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>128753</v>
+        <v>128931</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>145148</v>
+        <v>148496</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>183572</v>
+        <v>184566</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>118666</v>
+        <v>121149</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>66216</v>
+        <v>67103</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99068</v>
+        <v>100022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>109280</v>
+        <v>109777</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>76854</v>
+        <v>76230</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>113466</v>
+        <v>111668</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>100790</v>
+        <v>101482</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>129524</v>
+        <v>129639</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>86448</v>
+        <v>85986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>173806</v>
+        <v>170003</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>191178</v>
+        <v>193795</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>227653</v>
+        <v>229958</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>154814</v>
+        <v>154387</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>154098</v>
+        <v>155395</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>139020</v>
+        <v>141110</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>162101</v>
+        <v>161597</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>216664</v>
+        <v>217167</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>220341</v>
+        <v>219705</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>206378</v>
+        <v>207091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>229755</v>
+        <v>232077</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>264778</v>
+        <v>267238</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>387282</v>
+        <v>390317</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>362903</v>
+        <v>357726</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>409330</v>
+        <v>407687</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>495524</v>
+        <v>499618</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>201012</v>
+        <v>198532</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>185508</v>
+        <v>185591</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>211339</v>
+        <v>211107</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>274524</v>
+        <v>275393</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>268389</v>
+        <v>266847</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>260153</v>
+        <v>257920</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>280882</v>
+        <v>282676</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>313958</v>
+        <v>317216</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>452143</v>
+        <v>455048</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>430415</v>
+        <v>429342</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>479241</v>
+        <v>476948</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>574841</v>
+        <v>573561</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>133269</v>
+        <v>133984</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>159153</v>
+        <v>160556</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>206307</v>
+        <v>206150</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>130928</v>
+        <v>133275</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>182748</v>
+        <v>182619</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>227057</v>
+        <v>227431</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>251966</v>
+        <v>250251</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>171936</v>
+        <v>172314</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>328165</v>
+        <v>329606</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>400834</v>
+        <v>397828</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>470400</v>
+        <v>474760</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>316909</v>
+        <v>316939</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>178581</v>
+        <v>177709</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>210882</v>
+        <v>207929</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>257434</v>
+        <v>258750</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>179498</v>
+        <v>180617</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>235755</v>
+        <v>234857</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>281223</v>
+        <v>281033</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>305028</v>
+        <v>307369</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>216975</v>
+        <v>216839</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>396243</v>
+        <v>394590</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>472642</v>
+        <v>477398</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>546321</v>
+        <v>548942</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>384165</v>
+        <v>385646</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
     </row>
     <row r="40">
